--- a/Supplement files/Excel template for flash data interpretation/Flash Interpletation Template.xlsx
+++ b/Supplement files/Excel template for flash data interpretation/Flash Interpletation Template.xlsx
@@ -107,7 +107,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -117,16 +117,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -410,7 +407,7 @@
   <dimension ref="A2:F27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -448,9 +445,13 @@
       <c r="A3" s="3">
         <v>1</v>
       </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="7">
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3" s="5">
         <f>(1000/30)*A3</f>
         <v>33.333333333333336</v>
       </c>
@@ -467,9 +468,13 @@
       <c r="A4" s="3">
         <v>2</v>
       </c>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="7">
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4" s="5">
         <f t="shared" ref="D4:D22" si="0">(1000/30)*A4</f>
         <v>66.666666666666671</v>
       </c>
@@ -486,9 +491,13 @@
       <c r="A5" s="3">
         <v>3</v>
       </c>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="7">
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5" s="5">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
@@ -505,9 +514,13 @@
       <c r="A6" s="3">
         <v>4</v>
       </c>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="7">
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6" s="5">
         <f t="shared" si="0"/>
         <v>133.33333333333334</v>
       </c>
@@ -524,9 +537,13 @@
       <c r="A7" s="3">
         <v>5</v>
       </c>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="7">
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7" s="5">
         <f t="shared" si="0"/>
         <v>166.66666666666669</v>
       </c>
@@ -543,9 +560,13 @@
       <c r="A8" s="3">
         <v>6</v>
       </c>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="7">
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8" s="5">
         <f t="shared" si="0"/>
         <v>200</v>
       </c>
@@ -562,9 +583,13 @@
       <c r="A9" s="3">
         <v>7</v>
       </c>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="7">
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9" s="5">
         <f t="shared" si="0"/>
         <v>233.33333333333334</v>
       </c>
@@ -581,9 +606,13 @@
       <c r="A10" s="3">
         <v>8</v>
       </c>
-      <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="7">
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10" s="5">
         <f t="shared" si="0"/>
         <v>266.66666666666669</v>
       </c>
@@ -600,9 +629,13 @@
       <c r="A11" s="3">
         <v>9</v>
       </c>
-      <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="7">
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11" s="5">
         <f t="shared" si="0"/>
         <v>300</v>
       </c>
@@ -619,9 +652,13 @@
       <c r="A12" s="3">
         <v>10</v>
       </c>
-      <c r="B12" s="5"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="7">
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12" s="5">
         <f t="shared" si="0"/>
         <v>333.33333333333337</v>
       </c>
@@ -638,9 +675,13 @@
       <c r="A13" s="3">
         <v>11</v>
       </c>
-      <c r="B13" s="5"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="7">
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13" s="5">
         <f t="shared" si="0"/>
         <v>366.66666666666669</v>
       </c>
@@ -657,9 +698,13 @@
       <c r="A14" s="3">
         <v>12</v>
       </c>
-      <c r="B14" s="5"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="7">
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14" s="5">
         <f t="shared" si="0"/>
         <v>400</v>
       </c>
@@ -676,9 +721,13 @@
       <c r="A15" s="3">
         <v>13</v>
       </c>
-      <c r="B15" s="5"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="7">
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15" s="5">
         <f t="shared" si="0"/>
         <v>433.33333333333337</v>
       </c>
@@ -695,9 +744,13 @@
       <c r="A16" s="3">
         <v>14</v>
       </c>
-      <c r="B16" s="5"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="7">
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16" s="5">
         <f t="shared" si="0"/>
         <v>466.66666666666669</v>
       </c>
@@ -714,9 +767,13 @@
       <c r="A17" s="3">
         <v>15</v>
       </c>
-      <c r="B17" s="5"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="7">
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17" s="5">
         <f t="shared" si="0"/>
         <v>500.00000000000006</v>
       </c>
@@ -733,9 +790,13 @@
       <c r="A18" s="3">
         <v>16</v>
       </c>
-      <c r="B18" s="5"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="7">
+      <c r="B18">
+        <v>0</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18" s="5">
         <f t="shared" si="0"/>
         <v>533.33333333333337</v>
       </c>
@@ -752,9 +813,13 @@
       <c r="A19" s="3">
         <v>17</v>
       </c>
-      <c r="B19" s="5"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="7">
+      <c r="B19">
+        <v>0</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19" s="5">
         <f t="shared" si="0"/>
         <v>566.66666666666674</v>
       </c>
@@ -771,9 +836,13 @@
       <c r="A20" s="3">
         <v>18</v>
       </c>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="7">
+      <c r="B20">
+        <v>0</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20" s="5">
         <f t="shared" si="0"/>
         <v>600</v>
       </c>
@@ -790,9 +859,13 @@
       <c r="A21" s="3">
         <v>19</v>
       </c>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="7">
+      <c r="B21">
+        <v>0</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21" s="5">
         <f t="shared" si="0"/>
         <v>633.33333333333337</v>
       </c>
@@ -809,9 +882,13 @@
       <c r="A22" s="3">
         <v>20</v>
       </c>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="7">
+      <c r="B22">
+        <v>0</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22" s="5">
         <f t="shared" si="0"/>
         <v>666.66666666666674</v>
       </c>
@@ -829,25 +906,26 @@
         <v>2</v>
       </c>
       <c r="E23" s="1" t="e">
-        <f>SUM(E8,E15:E16)/SUM(B8,B15:B16)</f>
+        <f>SUM(E3:E22)/SUM(B3:B22)</f>
         <v>#DIV/0!</v>
       </c>
+      <c r="F23" s="3"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D24" t="s">
         <v>4</v>
       </c>
       <c r="E24" s="2" t="e">
-        <f>SUM(F7:F9)/SUM(C7:C9)</f>
+        <f>SUM(F3:F22)/SUM(C3:C22)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B27" s="6" t="s">
+      <c r="B27" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C27" s="6"/>
-      <c r="D27" s="8">
+      <c r="C27" s="7"/>
+      <c r="D27" s="6">
         <v>30</v>
       </c>
       <c r="E27" t="s">
